--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Efna4-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efna4</t>
   </si>
   <si>
     <t>Epha7</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>0.3893783333333333</v>
+      </c>
+      <c r="H2">
+        <v>1.168135</v>
+      </c>
+      <c r="I2">
+        <v>0.2294878876126519</v>
+      </c>
+      <c r="J2">
+        <v>0.2521981668521232</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.828516</v>
-      </c>
-      <c r="H2">
-        <v>2.485548</v>
-      </c>
-      <c r="I2">
-        <v>0.4625620436231038</v>
-      </c>
-      <c r="J2">
-        <v>0.4821955800271095</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N2">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O2">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P2">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q2">
-        <v>0.012024252708</v>
+        <v>0.0942841994261111</v>
       </c>
       <c r="R2">
-        <v>0.108218274372</v>
+        <v>0.8485577948349999</v>
       </c>
       <c r="S2">
-        <v>0.00302428806989531</v>
+        <v>0.169501080126314</v>
       </c>
       <c r="T2">
-        <v>0.004457671513708785</v>
+        <v>0.2040545868474098</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,75 +587,75 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.828516</v>
+        <v>0.3893783333333333</v>
       </c>
       <c r="H3">
-        <v>2.485548</v>
+        <v>1.168135</v>
       </c>
       <c r="I3">
-        <v>0.4625620436231038</v>
+        <v>0.2294878876126519</v>
       </c>
       <c r="J3">
-        <v>0.4821955800271095</v>
+        <v>0.2521981668521232</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N3">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O3">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P3">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q3">
-        <v>0.200617140412</v>
+        <v>0.03336738689666667</v>
       </c>
       <c r="R3">
-        <v>1.805554263708</v>
+        <v>0.20020432138</v>
       </c>
       <c r="S3">
-        <v>0.05045835604909211</v>
+        <v>0.0599868074863379</v>
       </c>
       <c r="T3">
-        <v>0.07437346284158684</v>
+        <v>0.04814358000471335</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,60 +664,60 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.828516</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H4">
-        <v>2.485548</v>
+        <v>2.231519</v>
       </c>
       <c r="I4">
-        <v>0.4625620436231038</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J4">
-        <v>0.4821955800271095</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.013551</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N4">
-        <v>0.04065299999999999</v>
+        <v>0.726421</v>
       </c>
       <c r="O4">
-        <v>0.006104741983312082</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P4">
-        <v>0.008631752653669953</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q4">
-        <v>0.011227220316</v>
+        <v>0.1801135848332222</v>
       </c>
       <c r="R4">
-        <v>0.101044982844</v>
+        <v>1.621022263499</v>
       </c>
       <c r="S4">
-        <v>0.002823821927592596</v>
+        <v>0.3238023694370874</v>
       </c>
       <c r="T4">
-        <v>0.004162192977486925</v>
+        <v>0.389810841715337</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,542 +726,418 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.828516</v>
+        <v>0.7438396666666667</v>
       </c>
       <c r="H5">
-        <v>2.485548</v>
+        <v>2.231519</v>
       </c>
       <c r="I5">
-        <v>0.4625620436231038</v>
+        <v>0.4383967447919097</v>
       </c>
       <c r="J5">
-        <v>0.4821955800271095</v>
+        <v>0.4817807882613594</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>1.9495455</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N5">
-        <v>3.899091</v>
+        <v>0.171388</v>
       </c>
       <c r="O5">
-        <v>0.878272619159261</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P5">
-        <v>0.827884512487409</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q5">
-        <v>1.615229639478</v>
+        <v>0.06374259639533333</v>
       </c>
       <c r="R5">
-        <v>9.691377836868002</v>
+        <v>0.3824555783720001</v>
       </c>
       <c r="S5">
-        <v>0.4062555775765237</v>
+        <v>0.1145943753548222</v>
       </c>
       <c r="T5">
-        <v>0.399202252694327</v>
+        <v>0.09196994654602246</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.08827633333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.264829</v>
+      </c>
+      <c r="I6">
+        <v>0.05202741788283973</v>
+      </c>
+      <c r="J6">
+        <v>0.05717608694995093</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.7438396666666667</v>
-      </c>
-      <c r="H6">
-        <v>2.231519</v>
-      </c>
-      <c r="I6">
-        <v>0.4152870872032183</v>
-      </c>
-      <c r="J6">
-        <v>0.4329140288365043</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N6">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O6">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P6">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q6">
-        <v>0.01079534508233333</v>
+        <v>0.02137526077877778</v>
       </c>
       <c r="R6">
-        <v>0.09715810574100001</v>
+        <v>0.192377347009</v>
       </c>
       <c r="S6">
-        <v>0.002715198535471741</v>
+        <v>0.03842775154307645</v>
       </c>
       <c r="T6">
-        <v>0.004002086734434385</v>
+        <v>0.04626141000844312</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.7438396666666667</v>
+        <v>0.08827633333333333</v>
       </c>
       <c r="H7">
-        <v>2.231519</v>
+        <v>0.264829</v>
       </c>
       <c r="I7">
-        <v>0.4152870872032183</v>
+        <v>0.05202741788283973</v>
       </c>
       <c r="J7">
-        <v>0.4329140288365043</v>
+        <v>0.05717608694995093</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N7">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O7">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P7">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q7">
-        <v>0.1801135848332222</v>
+        <v>0.007564752108666667</v>
       </c>
       <c r="R7">
-        <v>1.621022263499</v>
+        <v>0.045388512652</v>
       </c>
       <c r="S7">
-        <v>0.04530139037037868</v>
+        <v>0.01359966633976328</v>
       </c>
       <c r="T7">
-        <v>0.06677231557257998</v>
+        <v>0.01091467694150782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.4583675</v>
+      </c>
+      <c r="H8">
+        <v>0.9167350000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.2701480291026951</v>
+      </c>
+      <c r="J8">
+        <v>0.1979213759447163</v>
+      </c>
+      <c r="K8">
         <v>3</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.7438396666666667</v>
-      </c>
-      <c r="H8">
-        <v>2.231519</v>
-      </c>
-      <c r="I8">
-        <v>0.4152870872032183</v>
-      </c>
-      <c r="J8">
-        <v>0.4329140288365043</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.013551</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N8">
-        <v>0.04065299999999999</v>
+        <v>0.726421</v>
       </c>
       <c r="O8">
-        <v>0.006104741983312082</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P8">
-        <v>0.008631752653669953</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q8">
-        <v>0.010079771323</v>
+        <v>0.1109892592391667</v>
       </c>
       <c r="R8">
-        <v>0.09071794190699999</v>
+        <v>0.665935555435</v>
       </c>
       <c r="S8">
-        <v>0.002535220516376873</v>
+        <v>0.1995328956279837</v>
       </c>
       <c r="T8">
-        <v>0.003736806817220446</v>
+        <v>0.1601390093384414</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7438396666666667</v>
+        <v>0.4583675</v>
       </c>
       <c r="H9">
-        <v>2.231519</v>
+        <v>0.9167350000000001</v>
       </c>
       <c r="I9">
-        <v>0.4152870872032183</v>
+        <v>0.2701480291026951</v>
       </c>
       <c r="J9">
-        <v>0.4329140288365043</v>
+        <v>0.1979213759447163</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>1.9495455</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N9">
-        <v>3.899091</v>
+        <v>0.171388</v>
       </c>
       <c r="O9">
-        <v>0.878272619159261</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P9">
-        <v>0.827884512487409</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q9">
-        <v>1.4501492748715</v>
+        <v>0.039279344545</v>
       </c>
       <c r="R9">
-        <v>8.700895649229</v>
+        <v>0.15711737818</v>
       </c>
       <c r="S9">
-        <v>0.364735277780991</v>
+        <v>0.07061513347471138</v>
       </c>
       <c r="T9">
-        <v>0.3584028197122694</v>
+        <v>0.03778236660627488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.21879</v>
+        <v>0.01686533333333333</v>
       </c>
       <c r="H10">
-        <v>0.43758</v>
+        <v>0.050596</v>
       </c>
       <c r="I10">
-        <v>0.1221508691736779</v>
+        <v>0.009939920609903594</v>
       </c>
       <c r="J10">
-        <v>0.08489039113638626</v>
+        <v>0.01092358199185028</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.014513</v>
+        <v>0.2421403333333333</v>
       </c>
       <c r="N10">
-        <v>0.043539</v>
+        <v>0.726421</v>
       </c>
       <c r="O10">
-        <v>0.006538124153480057</v>
+        <v>0.7386057795451564</v>
       </c>
       <c r="P10">
-        <v>0.009244530017173054</v>
+        <v>0.8091041635804498</v>
       </c>
       <c r="Q10">
-        <v>0.00317529927</v>
+        <v>0.004083777435111111</v>
       </c>
       <c r="R10">
-        <v>0.01905179562</v>
+        <v>0.036753996916</v>
       </c>
       <c r="S10">
-        <v>0.0007986375481130058</v>
+        <v>0.00734168281069481</v>
       </c>
       <c r="T10">
-        <v>0.0007847717690298841</v>
+        <v>0.008838315670818483</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.21879</v>
+        <v>0.01686533333333333</v>
       </c>
       <c r="H11">
-        <v>0.43758</v>
+        <v>0.050596</v>
       </c>
       <c r="I11">
-        <v>0.1221508691736779</v>
+        <v>0.009939920609903594</v>
       </c>
       <c r="J11">
-        <v>0.08489039113638626</v>
+        <v>0.01092358199185028</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>0.2421403333333333</v>
+        <v>0.08569400000000001</v>
       </c>
       <c r="N11">
-        <v>0.726421</v>
+        <v>0.171388</v>
       </c>
       <c r="O11">
-        <v>0.1090845147039467</v>
+        <v>0.2613942204548436</v>
       </c>
       <c r="P11">
-        <v>0.154239204841748</v>
+        <v>0.1908958364195503</v>
       </c>
       <c r="Q11">
-        <v>0.05297788353</v>
+        <v>0.001445257874666667</v>
       </c>
       <c r="R11">
-        <v>0.31786730118</v>
+        <v>0.008671547248000001</v>
       </c>
       <c r="S11">
-        <v>0.01332476828447593</v>
+        <v>0.002598237799208783</v>
       </c>
       <c r="T11">
-        <v>0.01309342642758119</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.21879</v>
-      </c>
-      <c r="H12">
-        <v>0.43758</v>
-      </c>
-      <c r="I12">
-        <v>0.1221508691736779</v>
-      </c>
-      <c r="J12">
-        <v>0.08489039113638626</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.013551</v>
-      </c>
-      <c r="N12">
-        <v>0.04065299999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.006104741983312082</v>
-      </c>
-      <c r="P12">
-        <v>0.008631752653669953</v>
-      </c>
-      <c r="Q12">
-        <v>0.00296482329</v>
-      </c>
-      <c r="R12">
-        <v>0.01778893974</v>
-      </c>
-      <c r="S12">
-        <v>0.0007456995393426128</v>
-      </c>
-      <c r="T12">
-        <v>0.0007327528589625823</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.21879</v>
-      </c>
-      <c r="H13">
-        <v>0.43758</v>
-      </c>
-      <c r="I13">
-        <v>0.1221508691736779</v>
-      </c>
-      <c r="J13">
-        <v>0.08489039113638626</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.9495455</v>
-      </c>
-      <c r="N13">
-        <v>3.899091</v>
-      </c>
-      <c r="O13">
-        <v>0.878272619159261</v>
-      </c>
-      <c r="P13">
-        <v>0.827884512487409</v>
-      </c>
-      <c r="Q13">
-        <v>0.4265410599450001</v>
-      </c>
-      <c r="R13">
-        <v>1.70616423978</v>
-      </c>
-      <c r="S13">
-        <v>0.1072817638017463</v>
-      </c>
-      <c r="T13">
-        <v>0.07027944008081261</v>
+        <v>0.002085266321031796</v>
       </c>
     </row>
   </sheetData>
